--- a/data/index_class/IndexClass.xlsx
+++ b/data/index_class/IndexClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools_SupportFiles\data\index_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122C0FE-E02E-4B06-ACEE-6F82D78F8AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFF917-DACB-40D5-AB56-20F97B9E66FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -205,12 +207,6 @@
     <t>==</t>
   </si>
   <si>
-    <t>ELEVATION</t>
-  </si>
-  <si>
-    <t>GRADIENT</t>
-  </si>
-  <si>
     <t>COMMUNITY</t>
   </si>
   <si>
@@ -242,6 +238,15 @@
   </si>
   <si>
     <t>LoGrad-HiElev</t>
+  </si>
+  <si>
+    <t>slope_nhd</t>
+  </si>
+  <si>
+    <t>elev_m</t>
+  </si>
+  <si>
+    <t>For PacNW change GRADIENT and ELEVATION to slop_nhd and elev_m</t>
   </si>
 </sst>
 </file>
@@ -803,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +837,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44880</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +846,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[IndexClass.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools_SupportFiles\data\index_class\[IndexClass.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,7 +933,12 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>44949</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1049,9 +1059,9 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1090,7 @@
         <v>41</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>42</v>
@@ -1094,7 +1104,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>43</v>
@@ -1103,10 +1113,10 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,7 +1127,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>43</v>
@@ -1126,10 +1136,10 @@
         <v>65</v>
       </c>
       <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,7 +1150,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>43</v>
@@ -1149,10 +1159,10 @@
         <v>64</v>
       </c>
       <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1163,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>43</v>
@@ -1172,10 +1182,10 @@
         <v>66</v>
       </c>
       <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>43</v>
@@ -1195,10 +1205,10 @@
         <v>67</v>
       </c>
       <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
         <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>43</v>
@@ -1218,21 +1228,21 @@
         <v>69</v>
       </c>
       <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
       <c r="C8" s="13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>15</v>
@@ -1241,21 +1251,21 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>15</v>
@@ -1264,21 +1274,21 @@
         <v>750</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>15</v>
@@ -1287,21 +1297,21 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>14</v>
@@ -1310,21 +1320,21 @@
         <v>750</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>14</v>
@@ -1333,21 +1343,21 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>15</v>
@@ -1356,21 +1366,21 @@
         <v>750</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>14</v>
@@ -1379,21 +1389,21 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>14</v>
@@ -1402,10 +1412,10 @@
         <v>750</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/index_class/IndexClass.xlsx
+++ b/data/index_class/IndexClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools_SupportFiles\data\index_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFF917-DACB-40D5-AB56-20F97B9E66FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4989320-BFAE-4362-BEFD-23A798851353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -240,13 +240,16 @@
     <t>LoGrad-HiElev</t>
   </si>
   <si>
-    <t>slope_nhd</t>
-  </si>
-  <si>
     <t>elev_m</t>
   </si>
   <si>
     <t>For PacNW change GRADIENT and ELEVATION to slop_nhd and elev_m</t>
+  </si>
+  <si>
+    <t>pslope_nhd</t>
+  </si>
+  <si>
+    <t>slope_nhd to pslope_nhd</t>
   </si>
 </sst>
 </file>
@@ -806,9 +809,9 @@
   <sheetPr codeName="sh_Notes">
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -837,7 +840,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44949</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,7 +940,15 @@
         <v>44949</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44950</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1059,9 +1070,9 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1253,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>15</v>
@@ -1265,7 +1276,7 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>15</v>
@@ -1288,7 +1299,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>15</v>
@@ -1311,7 +1322,7 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>14</v>
@@ -1334,7 +1345,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>14</v>
@@ -1357,7 +1368,7 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>15</v>
@@ -1380,7 +1391,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>14</v>
@@ -1403,7 +1414,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>14</v>

--- a/data/index_class/IndexClass.xlsx
+++ b/data/index_class/IndexClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools_SupportFiles\data\index_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4989320-BFAE-4362-BEFD-23A798851353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D172CAD7-4363-4921-9DAC-99D7E224AD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Index_Class" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Index_Class!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Index_Class!$A$1:$G$1</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -159,18 +159,6 @@
     <t>INDEX_NAME</t>
   </si>
   <si>
-    <t>COASTAL</t>
-  </si>
-  <si>
-    <t>EPIEDMONT</t>
-  </si>
-  <si>
-    <t>HIGHLAND</t>
-  </si>
-  <si>
-    <t>MBSS_2005_Bugs</t>
-  </si>
-  <si>
     <t>Index Class Assignment</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t>==</t>
-  </si>
-  <si>
     <t>COMMUNITY</t>
   </si>
   <si>
@@ -214,12 +199,6 @@
   </si>
   <si>
     <t>percent</t>
-  </si>
-  <si>
-    <t>USEPA Ecoregion Level 3</t>
-  </si>
-  <si>
-    <t>ECO3</t>
   </si>
   <si>
     <t>meters</t>
@@ -412,7 +391,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -441,7 +420,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -824,12 +802,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -877,7 +855,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,10 +895,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" s="12" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
@@ -932,7 +910,7 @@
         <v>44880</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,7 +918,7 @@
         <v>44949</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,7 +926,7 @@
         <v>44950</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1068,11 +1046,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,348 +1067,210 @@
         <v>27</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E2">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>750</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E4">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>750</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E5">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E6">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B7" s="16" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>750</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E7">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="B8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>750</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>750</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>750</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>750</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
+  <autoFilter ref="A1:G1" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>